--- a/路线测试文件/test-router - 网页.xlsx
+++ b/路线测试文件/test-router - 网页.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janspiry\Desktop\new_Delivery\路线测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\路线测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB2D35-CAD0-43C4-879C-15AA32BB60AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFFA438-5044-4207-A48E-7D5528B9E863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -531,15 +532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,74 +550,56 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2">
-        <v>8</v>
-      </c>
-      <c r="U1" s="5">
-        <v>9</v>
-      </c>
-      <c r="V1" s="5">
-        <v>10</v>
-      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -626,66 +609,48 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3">
-        <v>7</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
-        <v>12</v>
-      </c>
-      <c r="S2" s="3">
-        <v>9</v>
-      </c>
-      <c r="T2" s="3">
-        <v>12</v>
-      </c>
-      <c r="U2" s="3">
-        <v>6</v>
-      </c>
-      <c r="V2" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,56 +660,38 @@
       <c r="C3" s="3">
         <v>1.7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>5</v>
-      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3">
-        <v>4</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3">
-        <v>3</v>
-      </c>
-      <c r="V3" s="3">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -754,44 +701,36 @@
       <c r="C4" s="3">
         <v>0.8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3">
+      <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="M4" s="3">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -801,46 +740,38 @@
       <c r="C5" s="3">
         <v>1.3</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <v>7</v>
-      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3">
-        <v>5</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -850,44 +781,36 @@
       <c r="C6" s="1">
         <v>2.8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>3</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3">
+      <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -897,46 +820,38 @@
       <c r="C7" s="1">
         <v>1.9</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>10</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -946,45 +861,37 @@
       <c r="C8" s="1">
         <v>3.5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
       <c r="L8" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>10</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>7</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -994,44 +901,36 @@
       <c r="C9" s="1">
         <v>0.9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
       <c r="L9" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1041,46 +940,38 @@
       <c r="C10" s="1">
         <v>0.3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
       <c r="L10" s="3">
-        <v>12</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3">
-        <v>7</v>
-      </c>
-      <c r="S10" s="3">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>9</v>
-      </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1090,36 +981,36 @@
       <c r="C11" s="4">
         <v>1.2</v>
       </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3">
-        <v>9</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1129,39 +1020,120 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="7">
-        <v>5</v>
-      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D834A230-52AA-4E6E-8A82-1FDF2B5AA61D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>